--- a/biology/Médecine/1414_en_santé_et_médecine/1414_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1414_en_santé_et_médecine/1414_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1414 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Saint-François (it) (Ospedale di San Francesco Grande) de Padoue, par Baldo Bonafari et Sibilla de Cetto[1].
-1401-1414 : construction de l'Hôpital de la Sainte-Croix (Hospital de la Santa Creu) de Barcelone, fondé pour réunir les six hôpitaux de la ville en un seul établissement[2].
-1414[3] ou 1417-1418[4] : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Saint-François (it) (Ospedale di San Francesco Grande) de Padoue, par Baldo Bonafari et Sibilla de Cetto.
+1401-1414 : construction de l'Hôpital de la Sainte-Croix (Hospital de la Santa Creu) de Barcelone, fondé pour réunir les six hôpitaux de la ville en un seul établissement.
+1414 ou 1417-1418 : une épidémie de danse de Saint-Guy se répand depuis Strasbourg jusqu'en Bavière.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1413-1414 : Jacques de Forli (it) (c. 1364-1414) rédige à Padoue son commentaire du Canon d'Avicenne, qui sera imprimé pour la première fois en 1474 à Milan[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1413-1414 : Jacques de Forli (it) (c. 1364-1414) rédige à Padoue son commentaire du Canon d'Avicenne, qui sera imprimé pour la première fois en 1474 à Milan.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Antoine Ardi, barbier, témoin d'un acte passé devant notaire à la cour de Forez[6].
-Fl. Henri Oeler, originaire de Fribourg ou Strasbourg, étudiant en médecine à Montpellier ; copie un manuscrit de la Chirurgie de Chauliac[7].
-c. 1384-1414 : fl. Gilles Des Aubuis, chirurgien à Sainte-Maure en Touraine ; donne ses soins à Jeanne-Marie de Maillé vers 1384 et, en 1414, dépose à Tours à son procès en canonisation[6].
-1414-1424 : fl. Guillaume Richardi[6], étudiant en médecine à Montpellier, représentant du collège des Douze-Médecins, reçu bachelier en 1414, devenu directeur de l'hôpital Saint-Antoine de Millau où il examine, en 1424, une personne suspecte de lèpre[8].
-1414-1432 : fl. Guillaume Francisci, reçu docteur en médecine à Paris en 1424 ; enseigne jusqu'en 1430, assiste en 1432, au concile de Bâle[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Antoine Ardi, barbier, témoin d'un acte passé devant notaire à la cour de Forez.
+Fl. Henri Oeler, originaire de Fribourg ou Strasbourg, étudiant en médecine à Montpellier ; copie un manuscrit de la Chirurgie de Chauliac.
+c. 1384-1414 : fl. Gilles Des Aubuis, chirurgien à Sainte-Maure en Touraine ; donne ses soins à Jeanne-Marie de Maillé vers 1384 et, en 1414, dépose à Tours à son procès en canonisation.
+1414-1424 : fl. Guillaume Richardi, étudiant en médecine à Montpellier, représentant du collège des Douze-Médecins, reçu bachelier en 1414, devenu directeur de l'hôpital Saint-Antoine de Millau où il examine, en 1424, une personne suspecte de lèpre.
+1414-1432 : fl. Guillaume Francisci, reçu docteur en médecine à Paris en 1424 ; enseigne jusqu'en 1430, assiste en 1432, au concile de Bâle.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Publius Gregorius Tifernas (mort en 1469), humaniste, poète et médecin italien, professeur de grec à Paris, traducteur à la cour du fondateur de la Bibliothèque vaticane, le pape Nicolas V[9],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Publius Gregorius Tifernas (mort en 1469), humaniste, poète et médecin italien, professeur de grec à Paris, traducteur à la cour du fondateur de la Bibliothèque vaticane, le pape Nicolas V,.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1414_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1414_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12 février : Jacques de Forli (it) (né vers 1364), médecin et philosophe italien, surtout connu pour son commentaire de l'Ars parva de Galien[5].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12 février : Jacques de Forli (it) (né vers 1364), médecin et philosophe italien, surtout connu pour son commentaire de l'Ars parva de Galien.</t>
         </is>
       </c>
     </row>
